--- a/Characters.xlsx
+++ b/Characters.xlsx
@@ -442,8 +442,8 @@
   </sheetPr>
   <dimension ref="C3:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -531,102 +531,96 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="X4" s="1" t="inlineStr">
+        <is>
           <t>999</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="Y4" s="1" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>HP</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>HP</t>
-        </is>
-      </c>
-      <c r="P4" s="1" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="Q4" s="1" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>HP</t>
-        </is>
-      </c>
-      <c r="T4" s="1" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="U4" s="1" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>HP</t>
-        </is>
-      </c>
-      <c r="X4" s="1" t="inlineStr">
+      <c r="AB4" s="1" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="Y4" s="1" t="inlineStr">
+      <c r="AC4" s="1" t="inlineStr">
         <is>
           <t>999</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>HP</t>
-        </is>
-      </c>
-      <c r="AB4" s="1" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="AC4" s="1" t="inlineStr">
-        <is>
-          <t>110</t>
         </is>
       </c>
     </row>
@@ -638,102 +632,98 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>10021</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="Q5" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="T5" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="X5" s="1" t="inlineStr">
+        <is>
           <t>99</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="Y5" s="1" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>MP</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="M5" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="P5" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="Q5" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="T5" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="U5" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="X5" s="1" t="inlineStr">
+      <c r="AB5" s="1" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="Y5" s="1" t="inlineStr">
+      <c r="AC5" s="1" t="inlineStr">
         <is>
           <t>99</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="AB5" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="AC5" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
         </is>
       </c>
     </row>
@@ -744,7 +734,7 @@
         </is>
       </c>
       <c r="D6" s="1" t="n">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="n"/>
       <c r="G6" t="inlineStr">
@@ -762,7 +752,7 @@
         </is>
       </c>
       <c r="L6" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M6" s="1" t="n"/>
       <c r="O6" t="inlineStr">
@@ -798,7 +788,7 @@
         </is>
       </c>
       <c r="AB6" s="1" t="n">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AC6" s="1" t="n"/>
     </row>
@@ -875,7 +865,7 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E8" s="1" t="n"/>
@@ -897,7 +887,7 @@
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="M8" s="1" t="n"/>
@@ -941,7 +931,7 @@
       </c>
       <c r="AB8" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AC8" s="1" t="n"/>
@@ -954,7 +944,7 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E9" s="1" t="n"/>
@@ -976,7 +966,7 @@
       </c>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M9" s="1" t="n"/>
@@ -1020,7 +1010,7 @@
       </c>
       <c r="AB9" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1098,7 +1088,7 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E11" s="1" t="n"/>
@@ -1120,7 +1110,7 @@
       </c>
       <c r="L11" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M11" s="1" t="n"/>
@@ -1164,7 +1154,7 @@
       </c>
       <c r="AB11" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AC11" s="1" t="n"/>
@@ -1177,7 +1167,7 @@
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E12" s="1" t="n"/>
@@ -1199,7 +1189,7 @@
       </c>
       <c r="L12" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="M12" s="1" t="n"/>
@@ -1243,7 +1233,7 @@
       </c>
       <c r="AB12" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>47</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -1256,7 +1246,7 @@
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -1278,7 +1268,7 @@
       </c>
       <c r="L13" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M13" s="1" t="n"/>
@@ -1322,7 +1312,7 @@
       </c>
       <c r="AB13" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AC13" s="1" t="n"/>
@@ -1335,7 +1325,7 @@
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E14" s="1" t="n"/>
@@ -1357,7 +1347,7 @@
       </c>
       <c r="L14" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>26</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -1401,7 +1391,7 @@
       </c>
       <c r="AB14" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AC14" s="1" t="n"/>
@@ -1414,7 +1404,7 @@
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -1436,7 +1426,7 @@
       </c>
       <c r="L15" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>44</t>
         </is>
       </c>
       <c r="M15" s="1" t="n"/>
@@ -1480,7 +1470,7 @@
       </c>
       <c r="AB15" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>99</t>
         </is>
       </c>
       <c r="AC15" s="1" t="n"/>

--- a/Characters.xlsx
+++ b/Characters.xlsx
@@ -443,10 +443,10 @@
   <dimension ref="C3:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="8.33984375" customWidth="1" min="12" max="12"/>
   </cols>
@@ -531,11 +531,11 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E4" s="1" t="n">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="I4" s="1" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -557,11 +557,11 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>65</t>
         </is>
       </c>
       <c r="M4" s="1" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -615,13 +615,11 @@
       </c>
       <c r="AB4" s="1" t="inlineStr">
         <is>
-          <t>999</t>
-        </is>
-      </c>
-      <c r="AC4" s="1" t="inlineStr">
-        <is>
-          <t>999</t>
-        </is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -632,11 +630,13 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>26</v>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -660,11 +660,13 @@
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>10021</v>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -718,12 +720,12 @@
       </c>
       <c r="AB5" s="1" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AC5" s="1" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -734,7 +736,7 @@
         </is>
       </c>
       <c r="D6" s="1" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="n"/>
       <c r="G6" t="inlineStr">
@@ -752,7 +754,7 @@
         </is>
       </c>
       <c r="L6" s="1" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M6" s="1" t="n"/>
       <c r="O6" t="inlineStr">
@@ -788,7 +790,7 @@
         </is>
       </c>
       <c r="AB6" s="1" t="n">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="AC6" s="1" t="n"/>
     </row>
@@ -855,7 +857,9 @@
       <c r="AB7" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="AC7" s="1" t="n"/>
+      <c r="AC7" s="1" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="8">
       <c r="C8" s="2" t="inlineStr">
@@ -865,7 +869,7 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E8" s="1" t="n"/>
@@ -887,7 +891,7 @@
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M8" s="1" t="n"/>
@@ -931,7 +935,7 @@
       </c>
       <c r="AB8" s="1" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC8" s="1" t="n"/>
@@ -944,10 +948,12 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="n"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>PWR</t>
@@ -966,7 +972,7 @@
       </c>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M9" s="1" t="n"/>
@@ -1010,7 +1016,7 @@
       </c>
       <c r="AB9" s="1" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1024,7 +1030,9 @@
       <c r="D10" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E10" s="1" t="n"/>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>SPD</t>
@@ -1088,7 +1096,7 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E11" s="1" t="n"/>
@@ -1110,7 +1118,7 @@
       </c>
       <c r="L11" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M11" s="1" t="n"/>
@@ -1154,7 +1162,7 @@
       </c>
       <c r="AB11" s="1" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AC11" s="1" t="n"/>
@@ -1167,7 +1175,7 @@
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E12" s="1" t="n"/>
@@ -1189,7 +1197,7 @@
       </c>
       <c r="L12" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M12" s="1" t="n"/>
@@ -1233,7 +1241,7 @@
       </c>
       <c r="AB12" s="1" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -1246,7 +1254,7 @@
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -1268,7 +1276,7 @@
       </c>
       <c r="L13" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M13" s="1" t="n"/>
@@ -1312,7 +1320,7 @@
       </c>
       <c r="AB13" s="1" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AC13" s="1" t="n"/>
@@ -1325,10 +1333,12 @@
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="n"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>20</v>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>MAG</t>
@@ -1347,7 +1357,7 @@
       </c>
       <c r="L14" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -1391,7 +1401,7 @@
       </c>
       <c r="AB14" s="1" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AC14" s="1" t="n"/>
@@ -1404,7 +1414,7 @@
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E15" s="1" t="n"/>
@@ -1426,7 +1436,7 @@
       </c>
       <c r="L15" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M15" s="1" t="n"/>
@@ -1470,10 +1480,12 @@
       </c>
       <c r="AB15" s="1" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="AC15" s="1" t="n"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AC15" s="1" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="16">
       <c r="C16" s="2" t="inlineStr">

--- a/Characters.xlsx
+++ b/Characters.xlsx
@@ -531,11 +531,11 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>939</t>
         </is>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -618,8 +618,10 @@
           <t>110</t>
         </is>
       </c>
-      <c r="AC4" s="1" t="n">
-        <v>60</v>
+      <c r="AC4" s="1" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -630,12 +632,12 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>90</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -736,7 +738,7 @@
         </is>
       </c>
       <c r="D6" s="1" t="n">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="E6" s="1" t="n"/>
       <c r="G6" t="inlineStr">
@@ -803,7 +805,9 @@
       <c r="D7" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="n"/>
+      <c r="E7" s="1" t="n">
+        <v>0.44</v>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>Def</t>
@@ -812,7 +816,9 @@
       <c r="H7" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="I7" s="1" t="n"/>
+      <c r="I7" s="1" t="n">
+        <v>0.3</v>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>Def</t>
@@ -858,7 +864,7 @@
         <v>105</v>
       </c>
       <c r="AC7" s="1" t="n">
-        <v>0.59</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="8">
@@ -869,7 +875,7 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E8" s="1" t="n"/>
@@ -948,7 +954,7 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>73</t>
         </is>
       </c>
       <c r="E9" s="1" t="n">
@@ -1096,7 +1102,7 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E11" s="1" t="n"/>
@@ -1175,7 +1181,7 @@
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E12" s="1" t="n"/>
@@ -1254,7 +1260,7 @@
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>88</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -1333,7 +1339,7 @@
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E14" s="1" t="n">
@@ -1414,10 +1420,12 @@
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E15" s="1" t="n"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.44</v>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>MDEF</t>
@@ -1428,7 +1436,9 @@
           <t>8</t>
         </is>
       </c>
-      <c r="I15" s="1" t="n"/>
+      <c r="I15" s="1" t="n">
+        <v>0.3</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>MDEF</t>
@@ -1484,7 +1494,7 @@
         </is>
       </c>
       <c r="AC15" s="1" t="n">
-        <v>0.59</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="16">

--- a/Characters.xlsx
+++ b/Characters.xlsx
@@ -442,11 +442,11 @@
   </sheetPr>
   <dimension ref="C3:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8.33984375" customWidth="1" min="12" max="12"/>
   </cols>
@@ -531,11 +531,13 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>939</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>932</v>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -544,11 +546,13 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>61</v>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -557,11 +561,13 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>0</v>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -615,12 +621,12 @@
       </c>
       <c r="AB4" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AC4" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>200</t>
         </is>
       </c>
     </row>
@@ -632,12 +638,12 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -647,12 +653,12 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -662,12 +668,12 @@
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M5" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -722,12 +728,12 @@
       </c>
       <c r="AB5" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AC5" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -738,7 +744,7 @@
         </is>
       </c>
       <c r="D6" s="1" t="n">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="n"/>
       <c r="G6" t="inlineStr">
@@ -747,7 +753,7 @@
         </is>
       </c>
       <c r="H6" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1" t="n"/>
       <c r="K6" t="inlineStr">
@@ -756,7 +762,7 @@
         </is>
       </c>
       <c r="L6" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M6" s="1" t="n"/>
       <c r="O6" t="inlineStr">
@@ -792,7 +798,7 @@
         </is>
       </c>
       <c r="AB6" s="1" t="n">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AC6" s="1" t="n"/>
     </row>
@@ -875,7 +881,7 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E8" s="1" t="n"/>
@@ -886,7 +892,7 @@
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I8" s="1" t="n"/>
@@ -897,7 +903,7 @@
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M8" s="1" t="n"/>
@@ -941,7 +947,7 @@
       </c>
       <c r="AB8" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AC8" s="1" t="n"/>
@@ -954,7 +960,7 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E9" s="1" t="n">
@@ -967,7 +973,7 @@
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I9" s="1" t="n"/>
@@ -978,7 +984,7 @@
       </c>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M9" s="1" t="n"/>
@@ -1022,7 +1028,7 @@
       </c>
       <c r="AB9" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AC9" s="1" t="n"/>
@@ -1102,7 +1108,7 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E11" s="1" t="n"/>
@@ -1113,7 +1119,7 @@
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I11" s="1" t="n"/>
@@ -1124,7 +1130,7 @@
       </c>
       <c r="L11" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M11" s="1" t="n"/>
@@ -1168,7 +1174,7 @@
       </c>
       <c r="AB11" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AC11" s="1" t="n"/>
@@ -1181,7 +1187,7 @@
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E12" s="1" t="n"/>
@@ -1192,7 +1198,7 @@
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I12" s="1" t="n"/>
@@ -1203,7 +1209,7 @@
       </c>
       <c r="L12" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M12" s="1" t="n"/>
@@ -1247,7 +1253,7 @@
       </c>
       <c r="AB12" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -1260,7 +1266,7 @@
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -1271,7 +1277,7 @@
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I13" s="1" t="n"/>
@@ -1282,7 +1288,7 @@
       </c>
       <c r="L13" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M13" s="1" t="n"/>
@@ -1326,7 +1332,7 @@
       </c>
       <c r="AB13" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AC13" s="1" t="n"/>
@@ -1339,7 +1345,7 @@
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E14" s="1" t="n">
@@ -1352,7 +1358,7 @@
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I14" s="1" t="n"/>
@@ -1363,7 +1369,7 @@
       </c>
       <c r="L14" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M14" s="1" t="n"/>
@@ -1407,7 +1413,7 @@
       </c>
       <c r="AB14" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AC14" s="1" t="n"/>
@@ -1420,7 +1426,7 @@
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E15" s="1" t="n">
@@ -1433,7 +1439,7 @@
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I15" s="1" t="n">
@@ -1446,7 +1452,7 @@
       </c>
       <c r="L15" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>21</t>
         </is>
       </c>
       <c r="M15" s="1" t="n"/>
@@ -1490,7 +1496,7 @@
       </c>
       <c r="AB15" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AC15" s="1" t="n">
@@ -1503,42 +1509,54 @@
           <t>EXP</t>
         </is>
       </c>
-      <c r="D16" s="1" t="n"/>
+      <c r="D16" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="E16" s="1" t="n"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>EXP</t>
         </is>
       </c>
-      <c r="H16" s="1" t="n"/>
+      <c r="H16" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="I16" s="1" t="n"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>EXP</t>
         </is>
       </c>
-      <c r="L16" s="1" t="n"/>
+      <c r="L16" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="M16" s="1" t="n"/>
       <c r="O16" t="inlineStr">
         <is>
           <t>EXP</t>
         </is>
       </c>
-      <c r="P16" s="1" t="n"/>
+      <c r="P16" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="Q16" s="1" t="n"/>
       <c r="S16" t="inlineStr">
         <is>
           <t>EXP</t>
         </is>
       </c>
-      <c r="T16" s="1" t="n"/>
+      <c r="T16" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="U16" s="1" t="n"/>
       <c r="W16" t="inlineStr">
         <is>
           <t>EXP</t>
         </is>
       </c>
-      <c r="X16" s="1" t="n"/>
+      <c r="X16" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="Y16" s="1" t="n"/>
       <c r="AA16" t="inlineStr">
         <is>

--- a/Characters.xlsx
+++ b/Characters.xlsx
@@ -442,8 +442,8 @@
   </sheetPr>
   <dimension ref="C3:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -531,12 +531,12 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -546,12 +546,12 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>75</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>65</t>
         </is>
       </c>
       <c r="M4" s="1" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>65</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -606,12 +606,12 @@
       </c>
       <c r="X4" s="1" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>80</t>
         </is>
       </c>
       <c r="Y4" s="1" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="AB4" s="1" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>110</t>
         </is>
       </c>
       <c r="AC4" s="1" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -638,12 +638,12 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -653,12 +653,12 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M5" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>12</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -713,12 +713,12 @@
       </c>
       <c r="X5" s="1" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Y5" s="1" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -728,12 +728,12 @@
       </c>
       <c r="AB5" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AC5" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="D6" s="1" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="n"/>
       <c r="G6" t="inlineStr">
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="H6" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I6" s="1" t="n"/>
       <c r="K6" t="inlineStr">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="L6" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M6" s="1" t="n"/>
       <c r="O6" t="inlineStr">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="X6" s="1" t="n">
-        <v>277</v>
+        <v>17</v>
       </c>
       <c r="Y6" s="1" t="n"/>
       <c r="AA6" t="inlineStr">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="AB6" s="1" t="n">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AC6" s="1" t="n"/>
     </row>
@@ -812,7 +812,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.44</v>
+        <v>0.15</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -833,7 +833,9 @@
       <c r="L7" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="M7" s="1" t="n"/>
+      <c r="M7" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>Def</t>
@@ -842,7 +844,9 @@
       <c r="P7" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="Q7" s="1" t="n"/>
+      <c r="Q7" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>Def</t>
@@ -851,7 +855,9 @@
       <c r="T7" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="U7" s="1" t="n"/>
+      <c r="U7" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="W7" t="inlineStr">
         <is>
           <t>Def</t>
@@ -860,7 +866,9 @@
       <c r="X7" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="Y7" s="1" t="n"/>
+      <c r="Y7" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>Def</t>
@@ -870,7 +878,7 @@
         <v>105</v>
       </c>
       <c r="AC7" s="1" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -881,10 +889,12 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="n"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>Level</t>
@@ -892,10 +902,12 @@
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="n"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>Level</t>
@@ -903,10 +915,12 @@
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="M8" s="1" t="n"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="O8" t="inlineStr">
         <is>
           <t>Level</t>
@@ -917,7 +931,9 @@
           <t>1</t>
         </is>
       </c>
-      <c r="Q8" s="1" t="n"/>
+      <c r="Q8" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="S8" t="inlineStr">
         <is>
           <t>Level</t>
@@ -928,7 +944,9 @@
           <t>1</t>
         </is>
       </c>
-      <c r="U8" s="1" t="n"/>
+      <c r="U8" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="W8" t="inlineStr">
         <is>
           <t>Level</t>
@@ -936,10 +954,12 @@
       </c>
       <c r="X8" s="1" t="inlineStr">
         <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="Y8" s="1" t="n"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y8" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>Level</t>
@@ -947,10 +967,12 @@
       </c>
       <c r="AB8" s="1" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AC8" s="1" t="n"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="C9" s="2" t="inlineStr">
@@ -960,7 +982,7 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E9" s="1" t="n">
@@ -973,65 +995,77 @@
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>PWR</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>PWR</t>
+        </is>
+      </c>
+      <c r="P9" s="1" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="I9" s="1" t="n"/>
-      <c r="K9" t="inlineStr">
+      <c r="Q9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>PWR</t>
         </is>
       </c>
-      <c r="L9" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M9" s="1" t="n"/>
-      <c r="O9" t="inlineStr">
+      <c r="T9" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="inlineStr">
         <is>
           <t>PWR</t>
         </is>
       </c>
-      <c r="P9" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q9" s="1" t="n"/>
-      <c r="S9" t="inlineStr">
+      <c r="X9" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="inlineStr">
         <is>
           <t>PWR</t>
         </is>
       </c>
-      <c r="T9" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="U9" s="1" t="n"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>PWR</t>
-        </is>
-      </c>
-      <c r="X9" s="1" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="Y9" s="1" t="n"/>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>PWR</t>
-        </is>
-      </c>
       <c r="AB9" s="1" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AC9" s="1" t="n"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AC9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="C10" s="2" t="inlineStr">
@@ -1053,7 +1087,9 @@
       <c r="H10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I10" s="1" t="n"/>
+      <c r="I10" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>SPD</t>
@@ -1062,7 +1098,9 @@
       <c r="L10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="M10" s="1" t="n"/>
+      <c r="M10" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="O10" t="inlineStr">
         <is>
           <t>SPD</t>
@@ -1071,7 +1109,9 @@
       <c r="P10" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="Q10" s="1" t="n"/>
+      <c r="Q10" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="S10" t="inlineStr">
         <is>
           <t>SPD</t>
@@ -1080,7 +1120,9 @@
       <c r="T10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="U10" s="1" t="n"/>
+      <c r="U10" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="W10" t="inlineStr">
         <is>
           <t>SPD</t>
@@ -1089,7 +1131,9 @@
       <c r="X10" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="Y10" s="1" t="n"/>
+      <c r="Y10" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>SPD</t>
@@ -1098,7 +1142,9 @@
       <c r="AB10" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="AC10" s="1" t="n"/>
+      <c r="AC10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="C11" s="2" t="inlineStr">
@@ -1108,76 +1154,90 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>HIT</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>HIT</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>HIT</t>
+        </is>
+      </c>
+      <c r="P11" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>HIT</t>
+        </is>
+      </c>
+      <c r="T11" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="U11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>HIT</t>
+        </is>
+      </c>
+      <c r="X11" s="1" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E11" s="1" t="n"/>
-      <c r="G11" t="inlineStr">
+      <c r="Y11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="inlineStr">
         <is>
           <t>HIT</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="n"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>HIT</t>
-        </is>
-      </c>
-      <c r="L11" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="M11" s="1" t="n"/>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>HIT</t>
-        </is>
-      </c>
-      <c r="P11" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Q11" s="1" t="n"/>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>HIT</t>
-        </is>
-      </c>
-      <c r="T11" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="U11" s="1" t="n"/>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>HIT</t>
-        </is>
-      </c>
-      <c r="X11" s="1" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="Y11" s="1" t="n"/>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>HIT</t>
-        </is>
-      </c>
       <c r="AB11" s="1" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="AC11" s="1" t="n"/>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="C12" s="2" t="inlineStr">
@@ -1187,10 +1247,12 @@
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="n"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>EV</t>
@@ -1198,10 +1260,12 @@
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="n"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>EV</t>
@@ -1209,54 +1273,64 @@
       </c>
       <c r="L12" s="1" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>EV</t>
+        </is>
+      </c>
+      <c r="P12" s="1" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M12" s="1" t="n"/>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>EV</t>
         </is>
       </c>
-      <c r="P12" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Q12" s="1" t="n"/>
-      <c r="S12" t="inlineStr">
+      <c r="T12" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="U12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="inlineStr">
         <is>
           <t>EV</t>
         </is>
       </c>
-      <c r="T12" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="U12" s="1" t="n"/>
-      <c r="W12" t="inlineStr">
+      <c r="X12" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Y12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="inlineStr">
         <is>
           <t>EV</t>
         </is>
       </c>
-      <c r="X12" s="1" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="Y12" s="1" t="n"/>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>EV</t>
-        </is>
-      </c>
       <c r="AB12" s="1" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AC12" s="1" t="n"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AC12" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="C13" s="2" t="inlineStr">
@@ -1266,10 +1340,12 @@
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="n"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>STM</t>
@@ -1277,10 +1353,12 @@
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="n"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>STM</t>
@@ -1288,10 +1366,12 @@
       </c>
       <c r="L13" s="1" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="M13" s="1" t="n"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="O13" t="inlineStr">
         <is>
           <t>STM</t>
@@ -1302,7 +1382,9 @@
           <t>8</t>
         </is>
       </c>
-      <c r="Q13" s="1" t="n"/>
+      <c r="Q13" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="S13" t="inlineStr">
         <is>
           <t>STM</t>
@@ -1313,7 +1395,9 @@
           <t>10</t>
         </is>
       </c>
-      <c r="U13" s="1" t="n"/>
+      <c r="U13" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="W13" t="inlineStr">
         <is>
           <t>STM</t>
@@ -1321,10 +1405,12 @@
       </c>
       <c r="X13" s="1" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="Y13" s="1" t="n"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="Y13" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>STM</t>
@@ -1332,10 +1418,12 @@
       </c>
       <c r="AB13" s="1" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AC13" s="1" t="n"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="C14" s="2" t="inlineStr">
@@ -1345,78 +1433,90 @@
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>MAG</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>MAG</t>
+        </is>
+      </c>
+      <c r="L14" s="1" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="G14" t="inlineStr">
+      <c r="M14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>MAG</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="n"/>
-      <c r="K14" t="inlineStr">
+      <c r="P14" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>MAG</t>
         </is>
       </c>
-      <c r="L14" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M14" s="1" t="n"/>
-      <c r="O14" t="inlineStr">
+      <c r="T14" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="inlineStr">
         <is>
           <t>MAG</t>
         </is>
       </c>
-      <c r="P14" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="Q14" s="1" t="n"/>
-      <c r="S14" t="inlineStr">
+      <c r="X14" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="inlineStr">
         <is>
           <t>MAG</t>
         </is>
       </c>
-      <c r="T14" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="U14" s="1" t="n"/>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>MAG</t>
-        </is>
-      </c>
-      <c r="X14" s="1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Y14" s="1" t="n"/>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>MAG</t>
-        </is>
-      </c>
       <c r="AB14" s="1" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AC14" s="1" t="n"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AC14" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="C15" s="2" t="inlineStr">
@@ -1426,11 +1526,11 @@
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.44</v>
+        <v>0.15</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1439,11 +1539,11 @@
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1452,10 +1552,12 @@
       </c>
       <c r="L15" s="1" t="inlineStr">
         <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="M15" s="1" t="n"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="O15" t="inlineStr">
         <is>
           <t>MDEF</t>
@@ -1466,7 +1568,9 @@
           <t>3</t>
         </is>
       </c>
-      <c r="Q15" s="1" t="n"/>
+      <c r="Q15" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="S15" t="inlineStr">
         <is>
           <t>MDEF</t>
@@ -1477,7 +1581,9 @@
           <t>1</t>
         </is>
       </c>
-      <c r="U15" s="1" t="n"/>
+      <c r="U15" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="W15" t="inlineStr">
         <is>
           <t>MDEF</t>
@@ -1485,10 +1591,12 @@
       </c>
       <c r="X15" s="1" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="Y15" s="1" t="n"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y15" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>MDEF</t>
@@ -1496,11 +1604,11 @@
       </c>
       <c r="AB15" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AC15" s="1" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1510,7 +1618,7 @@
         </is>
       </c>
       <c r="D16" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1" t="n"/>
       <c r="G16" t="inlineStr">
@@ -1519,7 +1627,7 @@
         </is>
       </c>
       <c r="H16" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1" t="n"/>
       <c r="K16" t="inlineStr">
@@ -1528,7 +1636,7 @@
         </is>
       </c>
       <c r="L16" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1" t="n"/>
       <c r="O16" t="inlineStr">
@@ -1563,7 +1671,9 @@
           <t>EXP</t>
         </is>
       </c>
-      <c r="AB16" s="1" t="n"/>
+      <c r="AB16" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="AC16" s="1" t="n"/>
     </row>
     <row r="17">
@@ -1572,49 +1682,63 @@
           <t>NEXT</t>
         </is>
       </c>
-      <c r="D17" s="1" t="n"/>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="E17" s="1" t="n"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>NEXT</t>
         </is>
       </c>
-      <c r="H17" s="1" t="n"/>
+      <c r="H17" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="I17" s="1" t="n"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>NEXT</t>
         </is>
       </c>
-      <c r="L17" s="1" t="n"/>
+      <c r="L17" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="M17" s="1" t="n"/>
       <c r="O17" t="inlineStr">
         <is>
           <t>NEXT</t>
         </is>
       </c>
-      <c r="P17" s="1" t="n"/>
+      <c r="P17" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="Q17" s="1" t="n"/>
       <c r="S17" t="inlineStr">
         <is>
           <t>NEXT</t>
         </is>
       </c>
-      <c r="T17" s="1" t="n"/>
+      <c r="T17" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="U17" s="1" t="n"/>
       <c r="W17" t="inlineStr">
         <is>
           <t>NEXT</t>
         </is>
       </c>
-      <c r="X17" s="1" t="n"/>
+      <c r="X17" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="Y17" s="1" t="n"/>
       <c r="AA17" t="inlineStr">
         <is>
           <t>NEXT</t>
         </is>
       </c>
-      <c r="AB17" s="1" t="n"/>
+      <c r="AB17" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="AC17" s="1" t="n"/>
     </row>
     <row r="18" ht="27.75" customHeight="1">

--- a/Characters.xlsx
+++ b/Characters.xlsx
@@ -531,12 +531,12 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>187</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>187</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -546,12 +546,12 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>179</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>179</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>164</t>
         </is>
       </c>
       <c r="M4" s="1" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>164</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -638,12 +638,12 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -653,12 +653,12 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M5" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="D6" s="1" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="n"/>
       <c r="G6" t="inlineStr">
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="H6" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1" t="n"/>
       <c r="K6" t="inlineStr">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="L6" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M6" s="1" t="n"/>
       <c r="O6" t="inlineStr">
@@ -812,7 +812,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E8" s="1" t="n">
@@ -902,7 +902,7 @@
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I8" s="1" t="n">
@@ -915,7 +915,7 @@
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M8" s="1" t="n">
@@ -982,7 +982,7 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E9" s="1" t="n">
@@ -995,7 +995,7 @@
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I9" s="1" t="n">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M9" s="1" t="n">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E11" s="1" t="n">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I11" s="1" t="n">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="L11" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M11" s="1" t="n">
@@ -1247,33 +1247,33 @@
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>EV</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>EV</t>
+        </is>
+      </c>
+      <c r="L12" s="1" t="inlineStr">
+        <is>
           <t>8</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>EV</t>
-        </is>
-      </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>EV</t>
-        </is>
-      </c>
-      <c r="L12" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
       <c r="M12" s="1" t="n">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E13" s="1" t="n">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I13" s="1" t="n">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="L13" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M13" s="1" t="n">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E14" s="1" t="n">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I14" s="1" t="n">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="L14" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M14" s="1" t="n">
@@ -1526,11 +1526,11 @@
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I15" s="1" t="n">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="L15" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>21</t>
         </is>
       </c>
       <c r="M15" s="1" t="n">

--- a/Characters.xlsx
+++ b/Characters.xlsx
@@ -446,7 +446,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="8.33984375" customWidth="1" min="12" max="12"/>
   </cols>
@@ -534,10 +534,8 @@
           <t>187</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>187</t>
-        </is>
+      <c r="E4" s="1" t="n">
+        <v>152</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -549,10 +547,8 @@
           <t>179</t>
         </is>
       </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>179</t>
-        </is>
+      <c r="I4" s="1" t="n">
+        <v>139</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -564,10 +560,8 @@
           <t>164</t>
         </is>
       </c>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
+      <c r="M4" s="1" t="n">
+        <v>124</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -641,10 +635,8 @@
           <t>26</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="E5" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
